--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B47B9B-AFD6-4363-975E-4B23A991A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1637077-449B-46FB-B44C-730A24A8F440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>Date                :</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>SCD 49TK</t>
+  </si>
+  <si>
+    <t>MMST 470</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -929,6 +932,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68" t="s">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="66" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="67"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1353,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1373,23 +1379,23 @@
         <v>5179.5</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" ref="E7:E41" si="0">D7*C7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="69" t="s">
+        <f t="shared" ref="E7:E42" si="0">D7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="70">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1406,244 +1412,250 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="L8" s="69">
+      <c r="J8" s="70"/>
+      <c r="L8" s="70">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="18"/>
       <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
-        <v>341</v>
-      </c>
-      <c r="E9" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="69"/>
-      <c r="L9" s="69">
-        <f>K9*0.19</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="70">
-        <f>K8*28.2+K9*18.5+K10*18.5+K11*13.7</f>
-        <v>27750</v>
-      </c>
-      <c r="P9" s="69">
-        <f>L8+L9+L10+L11+L12</f>
-        <v>285</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C9" s="22">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <v>470</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="69"/>
-      <c r="K10">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="69">
+      <c r="I10" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="L10" s="70">
         <f>K10*0.19</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="71">
+        <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
+        <v>27750</v>
+      </c>
+      <c r="P10" s="70">
+        <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="69"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20">
-        <v>100</v>
-      </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="69"/>
-      <c r="L11" s="69">
-        <f>K11*0.14</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="69"/>
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23">
+        <v>241</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="70">
+        <f>K11*0.19</f>
+        <v>285</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="25"/>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="20">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="69"/>
-      <c r="L12" s="69">
+      <c r="I12" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="L12" s="70">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="69"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="20">
+        <v>99.2</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="L13" s="70">
+        <f>K13*0.14</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="27">
+      <c r="C14" s="22">
+        <v>100</v>
+      </c>
+      <c r="D14" s="27">
         <v>323</v>
       </c>
-      <c r="E13" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="69" t="s">
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>32300</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="69"/>
-      <c r="K13">
+      <c r="J14" s="70"/>
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="L13" s="69">
-        <f>K13*9</f>
+      <c r="L14" s="70">
+        <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M13" s="69"/>
-      <c r="N13" t="s">
+      <c r="M14" s="70"/>
+      <c r="N14" t="s">
         <v>83</v>
       </c>
-      <c r="O13">
-        <f>K13*232</f>
+      <c r="O14">
+        <f>K14*232</f>
         <v>2320</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="29">
-        <v>82</v>
-      </c>
-      <c r="E14" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="69"/>
-      <c r="L14" s="69">
-        <f>K14*50</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32">
-        <v>100</v>
-      </c>
-      <c r="E15" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="72">
-        <f>SUM(L7:M14)</f>
-        <v>385</v>
-      </c>
-      <c r="M15" s="72"/>
+      <c r="B15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="29">
+        <v>82</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="L15" s="70">
+        <f>K15*50</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="29">
-        <v>110</v>
-      </c>
-      <c r="E16" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
+        <v>100</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="73">
+        <f>SUM(L7:M15)</f>
+        <v>385</v>
+      </c>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="33">
+      <c r="D17" s="29">
         <v>110</v>
       </c>
       <c r="E17" s="29">
@@ -1656,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="33">
@@ -1666,27 +1678,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18">
-        <v>84360</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="29">
-        <v>300</v>
+      <c r="D19" s="33">
+        <v>110</v>
       </c>
       <c r="E19" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19">
+        <v>84360</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1694,14 +1706,14 @@
         <v>15</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="29">
-        <v>89.2</v>
+        <v>300</v>
       </c>
       <c r="E20" s="29">
-        <f>D20*C20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1710,29 +1722,29 @@
         <v>15</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="29">
-        <v>110</v>
+        <v>89.2</v>
       </c>
       <c r="E21" s="29">
-        <f t="shared" si="0"/>
+        <f>D21*C21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32">
-        <v>8.81</v>
-      </c>
-      <c r="E22" s="35">
+        <v>15</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="29">
+        <v>110</v>
+      </c>
+      <c r="E22" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1742,11 +1754,11 @@
         <v>29</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="32">
-        <v>13.56</v>
+        <v>8.81</v>
       </c>
       <c r="E23" s="35">
         <f t="shared" si="0"/>
@@ -1758,7 +1770,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="32">
@@ -1774,17 +1786,15 @@
         <v>29</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="31">
-        <v>20000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C25" s="31"/>
       <c r="D25" s="32">
-        <v>8.81</v>
+        <v>13.56</v>
       </c>
       <c r="E25" s="35">
         <f t="shared" si="0"/>
-        <v>176200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1792,14 +1802,14 @@
         <v>29</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="32">
-        <v>9.65</v>
+        <v>8.81</v>
       </c>
       <c r="E26" s="35">
-        <f>D26*C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1807,15 +1817,15 @@
       <c r="A27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="29">
+      <c r="B27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32">
         <v>9.65</v>
       </c>
-      <c r="E27" s="36">
-        <f t="shared" si="0"/>
+      <c r="E27" s="35">
+        <f>D27*C27</f>
         <v>0</v>
       </c>
     </row>
@@ -1824,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="29">
@@ -1839,14 +1849,14 @@
       <c r="A29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="B29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="29">
+        <v>9.65</v>
+      </c>
+      <c r="E29" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1855,14 +1865,14 @@
       <c r="A30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55">
+      <c r="B30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32">
         <v>18.309999999999999</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1872,15 +1882,17 @@
         <v>29</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="32">
-        <v>27.912500000000001</v>
-      </c>
-      <c r="E31" s="35">
-        <f>D31*C31</f>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="54">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="55">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="0"/>
+        <v>274650</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1888,30 +1900,32 @@
         <v>29</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="31"/>
+        <v>86</v>
+      </c>
+      <c r="C32" s="54">
+        <v>2000</v>
+      </c>
       <c r="D32" s="32">
-        <v>27.936800000000002</v>
+        <v>27.912500000000001</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>0</v>
+        <v>55825</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>36</v>
+      <c r="B33" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="32">
-        <v>19.3</v>
+        <v>27.936800000000002</v>
       </c>
       <c r="E33" s="35">
-        <f t="shared" si="0"/>
+        <f>D33*C33</f>
         <v>0</v>
       </c>
     </row>
@@ -1919,14 +1933,14 @@
       <c r="A34" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="29">
-        <v>47.162500000000001</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="B34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32">
+        <v>19.3</v>
+      </c>
+      <c r="E34" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1936,11 +1950,11 @@
         <v>29</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="29">
-        <v>48.2</v>
+        <v>47.162500000000001</v>
       </c>
       <c r="E35" s="36">
         <f t="shared" si="0"/>
@@ -1952,11 +1966,11 @@
         <v>29</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="29">
-        <v>55.825000000000003</v>
+        <v>48.2</v>
       </c>
       <c r="E36" s="36">
         <f t="shared" si="0"/>
@@ -1968,11 +1982,11 @@
         <v>29</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="29">
-        <v>72.1874775</v>
+        <v>55.825000000000003</v>
       </c>
       <c r="E37" s="36">
         <f t="shared" si="0"/>
@@ -1984,11 +1998,11 @@
         <v>29</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="29">
-        <v>3.85</v>
+        <v>72.1874775</v>
       </c>
       <c r="E38" s="36">
         <f t="shared" si="0"/>
@@ -2000,11 +2014,11 @@
         <v>29</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="29">
-        <v>480.28750000000002</v>
+        <v>3.85</v>
       </c>
       <c r="E39" s="36">
         <f t="shared" si="0"/>
@@ -2016,11 +2030,11 @@
         <v>29</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="29">
-        <v>961.53750000000002</v>
+        <v>480.28750000000002</v>
       </c>
       <c r="E40" s="36">
         <f t="shared" si="0"/>
@@ -2032,64 +2046,64 @@
         <v>29</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="29">
-        <v>66.41</v>
+        <v>961.53750000000002</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G41">
-        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="65">
-        <v>109091</v>
-      </c>
-      <c r="D42" s="37">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="E42" s="32">
-        <f>C42*D42</f>
-        <v>105000.08750000001</v>
+        <v>29</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="29">
+        <v>66.41</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="39">
-        <v>1</v>
-      </c>
-      <c r="E43" s="36">
-        <f>D43*C43</f>
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="65">
+        <v>472416</v>
+      </c>
+      <c r="D43" s="37">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="E43" s="32">
+        <f>C43*D43</f>
+        <v>454700.4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="39">
-        <v>3330</v>
+        <v>1</v>
       </c>
       <c r="E44" s="36">
         <f>D44*C44</f>
@@ -2097,68 +2111,84 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="41" t="s">
+      <c r="A45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="39">
+        <v>3330</v>
+      </c>
+      <c r="E45" s="36">
+        <f>D45*C45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43">
-        <f>SUM(E7:E44)</f>
-        <v>281200.08750000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="42"/>
+      <c r="E46" s="43">
+        <f>SUM(E7:E45)</f>
+        <v>822175.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
+      <c r="E47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B48" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51">
+      <c r="C48" s="50"/>
+      <c r="D48" s="51">
         <v>1.0389614</v>
       </c>
-      <c r="E47" s="52">
-        <f>C47*D47</f>
+      <c r="E48" s="52">
+        <f>C48*D48</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L9:M9"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="N5:O6"/>
     <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I5:J6"/>
     <mergeCell ref="K5:K6"/>
   </mergeCells>
@@ -2198,13 +2228,13 @@
       <c r="E1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="67"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -2222,7 +2252,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="61" t="s">
         <v>78</v>
       </c>
@@ -2238,7 +2268,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="61" t="s">
         <v>77</v>
       </c>
@@ -2254,7 +2284,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="61" t="s">
         <v>76</v>
       </c>
@@ -2270,7 +2300,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="61" t="s">
         <v>73</v>
       </c>
@@ -2286,7 +2316,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="61" t="s">
         <v>75</v>
       </c>
@@ -2297,7 +2327,7 @@
       <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="61" t="s">
         <v>74</v>
       </c>
@@ -2313,21 +2343,21 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="76">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="77">
         <f>SUM(E2:E8)</f>
         <v>861847</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="77"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1637077-449B-46FB-B44C-730A24A8F440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD5125-B985-43A7-8ED4-3BD8D58679E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,6 +935,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,16 +954,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="67"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,30 +1412,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="L8" s="70">
+      <c r="J8" s="67"/>
+      <c r="L8" s="67">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22">
-        <v>10</v>
-      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1457,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="L10" s="70">
+      <c r="J10" s="67"/>
+      <c r="L10" s="67">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="73">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="67">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1493,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="67"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="67">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1524,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="L12" s="70">
+      <c r="J12" s="67"/>
+      <c r="L12" s="67">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1549,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="L13" s="70">
+      <c r="J13" s="67"/>
+      <c r="L13" s="67">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1566,28 +1564,26 @@
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22">
-        <v>100</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>32300</v>
-      </c>
-      <c r="I14" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="67"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="67">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1611,15 +1607,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70">
+      <c r="J15" s="67"/>
+      <c r="L15" s="67">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1636,16 +1632,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="73">
+      <c r="L16" s="69">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="73"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1885,14 +1881,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D31" s="55">
         <v>18.309999999999999</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>274650</v>
+        <v>183100</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1902,15 +1898,13 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54">
-        <v>2000</v>
-      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="32">
         <v>27.912500000000001</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>55825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,13 +1914,15 @@
       <c r="B33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="31">
+        <v>1000</v>
+      </c>
       <c r="D33" s="32">
         <v>27.936800000000002</v>
       </c>
       <c r="E33" s="35">
         <f>D33*C33</f>
-        <v>0</v>
+        <v>27936.800000000003</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2084,14 +2080,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>472416</v>
+        <v>158961</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>454700.4</v>
+        <v>152999.96249999999</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>822175.4</v>
+        <v>364036.76249999995</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2165,6 +2161,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2180,17 +2187,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,7 +2227,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2354,9 +2350,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD5125-B985-43A7-8ED4-3BD8D58679E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE8C9C8-121D-4D05-9898-4E2BA3EFF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,26 +935,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="70" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="71"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="70"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="70">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="L8" s="67">
+      <c r="J8" s="70"/>
+      <c r="L8" s="70">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1455,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="L10" s="67">
+      <c r="J10" s="70"/>
+      <c r="L10" s="70">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="73" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="71">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="70">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1491,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="70"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="70">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="67"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1522,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="L12" s="67">
+      <c r="J12" s="70"/>
+      <c r="L12" s="70">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1547,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="L13" s="67">
+      <c r="J13" s="70"/>
+      <c r="L13" s="70">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1572,18 +1572,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="67"/>
+      <c r="J14" s="70"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="70">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="M14" s="70"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1607,15 +1607,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="L15" s="67">
+      <c r="J15" s="70"/>
+      <c r="L15" s="70">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1632,16 +1632,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="69">
+      <c r="L16" s="73">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="69"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1800,13 +1800,15 @@
       <c r="B26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="31">
+        <v>15000</v>
+      </c>
       <c r="D26" s="32">
         <v>8.81</v>
       </c>
       <c r="E26" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132150</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,14 +1883,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D31" s="55">
         <v>18.309999999999999</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>183100</v>
+        <v>164790</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1914,15 +1916,13 @@
       <c r="B33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="31">
-        <v>1000</v>
-      </c>
+      <c r="C33" s="31"/>
       <c r="D33" s="32">
         <v>27.936800000000002</v>
       </c>
       <c r="E33" s="35">
         <f>D33*C33</f>
-        <v>27936.800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,14 +2080,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>158961</v>
+        <v>236945</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>152999.96249999999</v>
+        <v>228059.5625</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>364036.76249999995</v>
+        <v>524999.5625</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,17 +2161,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2187,6 +2176,17 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,7 +2227,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2350,9 +2350,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE8C9C8-121D-4D05-9898-4E2BA3EFF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B759FC3-B5AC-404F-B16A-03B66A68E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,6 +935,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,16 +954,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,7 +1258,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="67"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="L8" s="70">
+      <c r="J8" s="67"/>
+      <c r="L8" s="67">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1455,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="L10" s="70">
+      <c r="J10" s="67"/>
+      <c r="L10" s="67">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="73">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="67">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1491,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="67"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="67">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1522,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="L12" s="70">
+      <c r="J12" s="67"/>
+      <c r="L12" s="67">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1547,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="L13" s="70">
+      <c r="J13" s="67"/>
+      <c r="L13" s="67">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1572,18 +1572,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="67"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="67">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1607,15 +1607,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70">
+      <c r="J15" s="67"/>
+      <c r="L15" s="67">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1632,16 +1632,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="73">
+      <c r="L16" s="69">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="73"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1800,15 +1800,13 @@
       <c r="B26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="31">
-        <v>15000</v>
-      </c>
+      <c r="C26" s="31"/>
       <c r="D26" s="32">
         <v>8.81</v>
       </c>
       <c r="E26" s="35">
         <f t="shared" si="0"/>
-        <v>132150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1883,14 +1881,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="D31" s="55">
         <v>18.309999999999999</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>164790</v>
+        <v>256339.99999999997</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2080,14 +2078,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>236945</v>
+        <v>262504</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>228059.5625</v>
+        <v>252660.1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2129,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>524999.5625</v>
+        <v>509000.1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,6 +2159,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2176,17 +2185,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,7 +2225,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2350,9 +2348,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B759FC3-B5AC-404F-B16A-03B66A68E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E19FFA-21ED-46F7-B526-FE50F426038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,26 +935,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="70" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="71"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="70"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="70">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="L8" s="67">
+      <c r="J8" s="70"/>
+      <c r="L8" s="70">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1455,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="L10" s="67">
+      <c r="J10" s="70"/>
+      <c r="L10" s="70">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="73" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="71">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="70">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1491,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="70"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="70">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="67"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1522,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="L12" s="67">
+      <c r="J12" s="70"/>
+      <c r="L12" s="70">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1547,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="L13" s="67">
+      <c r="J13" s="70"/>
+      <c r="L13" s="70">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1564,26 +1564,28 @@
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22">
+        <v>75</v>
+      </c>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="67" t="s">
+        <v>24225</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="67"/>
+      <c r="J14" s="70"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="70">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="M14" s="70"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1607,15 +1609,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="L15" s="67">
+      <c r="J15" s="70"/>
+      <c r="L15" s="70">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1632,16 +1634,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="69">
+      <c r="L16" s="73">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="69"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1881,14 +1883,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="D31" s="55">
         <v>18.309999999999999</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>256339.99999999997</v>
+        <v>183100</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,13 +1900,15 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="54">
+        <v>1000</v>
+      </c>
       <c r="D32" s="32">
         <v>27.912500000000001</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>0</v>
+        <v>27912.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,14 +2082,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>262504</v>
+        <v>243909</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>252660.1</v>
+        <v>234762.41250000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,7 +2133,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>509000.1</v>
+        <v>469999.91249999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2159,17 +2163,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2185,6 +2178,17 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2225,7 +2229,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2348,9 +2352,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E19FFA-21ED-46F7-B526-FE50F426038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11311E3B-D1A4-4C92-844A-BCB0C52C067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,13 +1427,15 @@
       <c r="B9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>15</v>
+      </c>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7050</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1564,15 +1566,13 @@
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22">
-        <v>75</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>24225</v>
+        <v>0</v>
       </c>
       <c r="I14" s="70" t="s">
         <v>66</v>
@@ -1883,14 +1883,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D31" s="55">
         <v>18.309999999999999</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>183100</v>
+        <v>36620</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,15 +1900,13 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54">
-        <v>1000</v>
-      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="32">
         <v>27.912500000000001</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>27912.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,14 +2080,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>243909</v>
+        <v>112551</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>234762.41250000001</v>
+        <v>108330.33750000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>469999.91249999998</v>
+        <v>152000.33750000002</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11311E3B-D1A4-4C92-844A-BCB0C52C067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6965C107-D55F-440C-A857-7EC664F39A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5805" yWindow="3885" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,6 +935,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,16 +954,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="67"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,30 +1412,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="L8" s="70">
+      <c r="J8" s="67"/>
+      <c r="L8" s="67">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22">
-        <v>15</v>
-      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>7050</v>
+        <v>0</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1457,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="L10" s="70">
+      <c r="J10" s="67"/>
+      <c r="L10" s="67">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="73">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="67">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1493,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="67"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="67">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1524,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="L12" s="70">
+      <c r="J12" s="67"/>
+      <c r="L12" s="67">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1549,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="L13" s="70">
+      <c r="J13" s="67"/>
+      <c r="L13" s="67">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1574,18 +1572,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="67"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="67">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1609,15 +1607,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70">
+      <c r="J15" s="67"/>
+      <c r="L15" s="67">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1634,16 +1632,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="73">
+      <c r="L16" s="69">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="73"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1883,14 +1881,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>2000</v>
+        <v>7873</v>
       </c>
       <c r="D31" s="55">
         <v>18.309999999999999</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>36620</v>
+        <v>144154.62999999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,13 +1898,15 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="54">
+        <v>500</v>
+      </c>
       <c r="D32" s="32">
         <v>27.912500000000001</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>0</v>
+        <v>13956.25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2079,15 +2079,13 @@
       <c r="B43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="65">
-        <v>112551</v>
-      </c>
+      <c r="C43" s="65"/>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>108330.33750000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2129,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>152000.33750000002</v>
+        <v>158110.87999999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,6 +2159,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2176,17 +2185,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,7 +2225,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2350,9 +2348,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6965C107-D55F-440C-A857-7EC664F39A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FEAF54-43E7-42C1-8757-E3FC45210336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5805" yWindow="3885" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,26 +935,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="70" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="71"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="70"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="70">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="L8" s="67">
+      <c r="J8" s="70"/>
+      <c r="L8" s="70">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1455,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="L10" s="67">
+      <c r="J10" s="70"/>
+      <c r="L10" s="70">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="73" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="71">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="70">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1491,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="70"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="70">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="67"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1522,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="L12" s="67">
+      <c r="J12" s="70"/>
+      <c r="L12" s="70">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1547,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="L13" s="67">
+      <c r="J13" s="70"/>
+      <c r="L13" s="70">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1572,18 +1572,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="67"/>
+      <c r="J14" s="70"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="70">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="M14" s="70"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1607,15 +1607,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="L15" s="67">
+      <c r="J15" s="70"/>
+      <c r="L15" s="70">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1632,16 +1632,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="69">
+      <c r="L16" s="73">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="69"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="29">
-        <v>9.65</v>
+        <v>9.74</v>
       </c>
       <c r="E29" s="36">
         <f t="shared" si="0"/>
@@ -1865,8 +1865,8 @@
         <v>35</v>
       </c>
       <c r="C30" s="31"/>
-      <c r="D30" s="32">
-        <v>18.309999999999999</v>
+      <c r="D30" s="55">
+        <v>18.63</v>
       </c>
       <c r="E30" s="35">
         <f t="shared" si="0"/>
@@ -1881,14 +1881,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>7873</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="55">
-        <v>18.309999999999999</v>
+        <v>18.63</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>144154.62999999998</v>
+        <v>93150</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,15 +1898,13 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54">
-        <v>500</v>
-      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="32">
-        <v>27.912500000000001</v>
+        <v>27.97</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>13956.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,13 +1914,15 @@
       <c r="B33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="31">
+        <v>1000</v>
+      </c>
       <c r="D33" s="32">
-        <v>27.936800000000002</v>
+        <v>27.9468</v>
       </c>
       <c r="E33" s="35">
         <f>D33*C33</f>
-        <v>0</v>
+        <v>27946.799999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="32">
-        <v>19.3</v>
+        <v>19.48</v>
       </c>
       <c r="E34" s="35">
         <f t="shared" si="0"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="29">
-        <v>48.2</v>
+        <v>48.7</v>
       </c>
       <c r="E36" s="36">
         <f t="shared" si="0"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="29">
-        <v>66.41</v>
+        <v>66.412499999999994</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="0"/>
@@ -2079,13 +2079,15 @@
       <c r="B43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="65">
+        <v>432107</v>
+      </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>0</v>
+        <v>415902.98749999999</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>158110.87999999998</v>
+        <v>536999.78749999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2159,17 +2161,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2185,6 +2176,17 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2225,7 +2227,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2348,9 +2350,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FEAF54-43E7-42C1-8757-E3FC45210336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD8412-D13E-41A3-B002-3D1CE9DF5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,15 +1914,13 @@
       <c r="B33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="31">
-        <v>1000</v>
-      </c>
+      <c r="C33" s="31"/>
       <c r="D33" s="32">
         <v>27.9468</v>
       </c>
       <c r="E33" s="35">
         <f>D33*C33</f>
-        <v>27946.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,14 +2078,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>432107</v>
+        <v>113091</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>415902.98749999999</v>
+        <v>108850.08750000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2129,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>536999.78749999998</v>
+        <v>202000.08750000002</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD8412-D13E-41A3-B002-3D1CE9DF5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA2BE27-796A-49F2-A589-AAE9094D066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,6 +935,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,16 +954,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="67"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="L8" s="70">
+      <c r="J8" s="67"/>
+      <c r="L8" s="67">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1455,23 +1455,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="L10" s="70">
+      <c r="J10" s="67"/>
+      <c r="L10" s="67">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="73">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="67">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1491,21 +1491,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="67"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="67">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1522,15 +1522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="L12" s="70">
+      <c r="J12" s="67"/>
+      <c r="L12" s="67">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1547,15 +1547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="L13" s="70">
+      <c r="J13" s="67"/>
+      <c r="L13" s="67">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1572,18 +1572,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="67"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="67">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1607,15 +1607,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70">
+      <c r="J15" s="67"/>
+      <c r="L15" s="67">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1632,16 +1632,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="73">
+      <c r="L16" s="69">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="73"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -2078,14 +2078,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>113091</v>
+        <v>104779</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>108850.08750000001</v>
+        <v>100849.78750000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>202000.08750000002</v>
+        <v>193999.78750000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2159,6 +2159,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2174,17 +2185,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2225,7 +2225,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2348,9 +2348,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA2BE27-796A-49F2-A589-AAE9094D066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A2D4F-61BC-4F63-8A2C-DF71BDF1851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1564,13 +1564,15 @@
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22">
+        <v>50</v>
+      </c>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16150</v>
       </c>
       <c r="I14" s="67" t="s">
         <v>66</v>
@@ -2078,14 +2080,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>104779</v>
+        <v>104623</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>100849.78750000001</v>
+        <v>100699.6375</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>193999.78750000001</v>
+        <v>209999.63750000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A2D4F-61BC-4F63-8A2C-DF71BDF1851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C10D6A5-1F52-47D9-B048-4B4D5D24E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,26 +935,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="70" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="71"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="70"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="70">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,28 +1412,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="L8" s="67">
+      <c r="J8" s="70"/>
+      <c r="L8" s="70">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>25</v>
+      </c>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11750</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1455,23 +1457,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="L10" s="67">
+      <c r="J10" s="70"/>
+      <c r="L10" s="70">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="73" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="71">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="70">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1491,21 +1493,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="70"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="70">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="67"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1522,15 +1524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="L12" s="67">
+      <c r="J12" s="70"/>
+      <c r="L12" s="70">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1547,15 +1549,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="L13" s="67">
+      <c r="J13" s="70"/>
+      <c r="L13" s="70">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1564,28 +1566,26 @@
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22">
-        <v>50</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>16150</v>
-      </c>
-      <c r="I14" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="67"/>
+      <c r="J14" s="70"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="70">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="M14" s="70"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1609,15 +1609,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="L15" s="67">
+      <c r="J15" s="70"/>
+      <c r="L15" s="70">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1634,16 +1634,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="69">
+      <c r="L16" s="73">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="69"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1900,13 +1900,15 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="54">
+        <v>500</v>
+      </c>
       <c r="D32" s="32">
         <v>27.97</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>0</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,14 +2082,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>104623</v>
+        <v>315964</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>100699.6375</v>
+        <v>304115.35000000003</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2133,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>209999.63750000001</v>
+        <v>423000.35000000003</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,17 +2163,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2187,6 +2178,17 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,7 +2229,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2350,9 +2352,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C10D6A5-1F52-47D9-B048-4B4D5D24E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7504DC-5538-4FD3-834C-09FBB8755E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,6 +935,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,16 +954,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="67" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="67"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="L8" s="70">
+      <c r="J8" s="67"/>
+      <c r="L8" s="67">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1428,14 +1428,14 @@
         <v>90</v>
       </c>
       <c r="C9" s="22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>11750</v>
+        <v>7050</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1457,23 +1457,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="L10" s="70">
+      <c r="J10" s="67"/>
+      <c r="L10" s="67">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="73">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="67">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1493,21 +1493,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="67"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="67">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1524,15 +1524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="L12" s="70">
+      <c r="J12" s="67"/>
+      <c r="L12" s="67">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1549,15 +1549,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="L13" s="70">
+      <c r="J13" s="67"/>
+      <c r="L13" s="67">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1574,18 +1574,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="67"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="67">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1609,15 +1609,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70">
+      <c r="J15" s="67"/>
+      <c r="L15" s="67">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1634,16 +1634,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="73">
+      <c r="L16" s="69">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="73"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1883,14 +1883,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="D31" s="55">
         <v>18.63</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>93150</v>
+        <v>121095</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,15 +1900,13 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54">
-        <v>500</v>
-      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="32">
         <v>27.97</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>13985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,14 +2080,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>315964</v>
+        <v>266862</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>304115.35000000003</v>
+        <v>256854.67500000002</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>423000.35000000003</v>
+        <v>384999.67500000005</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2163,6 +2161,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2178,17 +2187,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,7 +2227,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2352,9 +2350,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7504DC-5538-4FD3-834C-09FBB8755E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCF3EA6-440A-493D-9A94-AFB6874EAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,26 +935,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,21 +1333,21 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="70" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="71"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1359,13 +1359,13 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -1382,20 +1382,20 @@
         <f t="shared" ref="E7:E42" si="0">D7*C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="70"/>
       <c r="K7">
         <v>1000</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="70">
         <f>K7*0.01</f>
         <v>10</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1412,15 +1412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="L8" s="67">
+      <c r="J8" s="70"/>
+      <c r="L8" s="70">
         <f>K8*0.29</f>
         <v>0</v>
       </c>
-      <c r="M8" s="67"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -1428,14 +1428,14 @@
         <v>90</v>
       </c>
       <c r="C9" s="22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>7050</v>
+        <v>4700</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1457,23 +1457,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="L10" s="67">
+      <c r="J10" s="70"/>
+      <c r="L10" s="70">
         <f>K10*0.19</f>
         <v>0</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="73" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="73">
+      <c r="O10" s="71">
         <f>K8*28.2+K10*18.5+K11*18.5+K12*13.7</f>
         <v>27750</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="70">
         <f>L8+L10+L11+L12+L13</f>
         <v>285</v>
       </c>
@@ -1493,21 +1493,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="70"/>
       <c r="K11">
         <v>1500</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="70">
         <f>K11*0.19</f>
         <v>285</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="67"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1524,15 +1524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="L12" s="67">
+      <c r="J12" s="70"/>
+      <c r="L12" s="70">
         <f>K12*0.14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="67"/>
+      <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1549,15 +1549,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="L13" s="67">
+      <c r="J13" s="70"/>
+      <c r="L13" s="70">
         <f>K13*0.14</f>
         <v>0</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1566,26 +1566,28 @@
       <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22">
+        <v>100</v>
+      </c>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="67" t="s">
+        <v>32300</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="67"/>
+      <c r="J14" s="70"/>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="70">
         <f>K14*9</f>
         <v>90</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="M14" s="70"/>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1609,15 +1611,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="L15" s="67">
+      <c r="J15" s="70"/>
+      <c r="L15" s="70">
         <f>K15*50</f>
         <v>0</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
@@ -1634,16 +1636,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="69">
+      <c r="L16" s="73">
         <f>SUM(L7:M15)</f>
         <v>385</v>
       </c>
-      <c r="M16" s="69"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -1882,15 +1884,13 @@
       <c r="B31" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="54">
-        <v>6500</v>
-      </c>
+      <c r="C31" s="54"/>
       <c r="D31" s="55">
         <v>18.63</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>121095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2080,14 +2080,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>266862</v>
+        <v>200000</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>256854.67500000002</v>
+        <v>192500</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>384999.67500000005</v>
+        <v>229500</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2161,17 +2161,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I8:J8"/>
@@ -2187,6 +2176,17 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,7 +2227,7 @@
       <c r="F1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
@@ -2350,9 +2350,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="78"/>
     </row>
   </sheetData>

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCF3EA6-440A-493D-9A94-AFB6874EAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D3CC7-3F79-409A-962F-E8B4E88C96F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,14 +1428,14 @@
         <v>90</v>
       </c>
       <c r="C9" s="22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="20">
         <v>470</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>9400</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1567,14 +1567,14 @@
         <v>20</v>
       </c>
       <c r="C14" s="22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>32300</v>
+        <v>16150</v>
       </c>
       <c r="I14" s="70" t="s">
         <v>66</v>
@@ -1884,13 +1884,15 @@
       <c r="B31" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="54">
+        <v>2000</v>
+      </c>
       <c r="D31" s="55">
         <v>18.63</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37260</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,13 +1902,15 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="54">
+        <v>500</v>
+      </c>
       <c r="D32" s="32">
         <v>27.97</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>0</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,14 +2084,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>200000</v>
+        <v>231901</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>192500</v>
+        <v>223204.71249999999</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2135,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>229500</v>
+        <v>299999.71250000002</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Daily_Work/Product Requisition. - Shortcut.xlsx
+++ b/Daily_Work/Product Requisition. - Shortcut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D3CC7-3F79-409A-962F-E8B4E88C96F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE22E6-3DB9-4EFB-ACAA-9FA2E0A9E320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E14" activeCellId="1" sqref="E9 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,14 +1428,14 @@
         <v>90</v>
       </c>
       <c r="C9" s="22">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D9" s="20">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>9400</v>
+        <v>13500</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -1567,14 +1567,14 @@
         <v>20</v>
       </c>
       <c r="C14" s="22">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" s="27">
         <v>323</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>16150</v>
+        <v>8075</v>
       </c>
       <c r="I14" s="70" t="s">
         <v>66</v>
@@ -1885,14 +1885,14 @@
         <v>50</v>
       </c>
       <c r="C31" s="54">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="D31" s="55">
         <v>18.63</v>
       </c>
       <c r="E31" s="56">
         <f t="shared" si="0"/>
-        <v>37260</v>
+        <v>130410</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1902,15 +1902,13 @@
       <c r="B32" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="54">
-        <v>500</v>
-      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="32">
         <v>27.97</v>
       </c>
       <c r="E32" s="35">
         <f>D32*C32</f>
-        <v>13985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2084,14 +2082,14 @@
         <v>44</v>
       </c>
       <c r="C43" s="65">
-        <v>231901</v>
+        <v>189210</v>
       </c>
       <c r="D43" s="37">
         <v>0.96250000000000002</v>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
-        <v>223204.71249999999</v>
+        <v>182114.625</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,7 +2133,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="43">
         <f>SUM(E7:E45)</f>
-        <v>299999.71250000002</v>
+        <v>334099.625</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
